--- a/CSM_Bharani/TestData/CSMTestData.xlsx
+++ b/CSM_Bharani/TestData/CSMTestData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
   </bookViews>
   <sheets>
-    <sheet name="CSM_Login" sheetId="1" r:id="rId3"/>
-    <sheet name="CSMParam_login" sheetId="2" r:id="rId4"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
-    <sheet name="CSM_ClientProcessingStatement" sheetId="4" r:id="rId6"/>
-    <sheet name="CSM_LostAndFoundManagement" sheetId="5" r:id="rId7"/>
-    <sheet name="AmendChequeCardStatusTestData" sheetId="6" r:id="rId8"/>
-    <sheet name="CSM_Transaction" sheetId="7" r:id="rId9"/>
-    <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId10"/>
-    <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId11"/>
+    <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="CSMParam_login" sheetId="2" r:id="rId2"/>
+    <sheet name="SadsLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="CSM_ClientProcessingStatement" sheetId="4" r:id="rId4"/>
+    <sheet name="CSM_LostAndFoundManagement" sheetId="5" r:id="rId5"/>
+    <sheet name="AmendChequeCardStatusTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="CSM_Transaction" sheetId="7" r:id="rId7"/>
+    <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId8"/>
+    <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="190">
   <si>
     <t>Stage</t>
   </si>
@@ -588,28 +588,20 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>7241</t>
-  </si>
-  <si>
-    <t>7242</t>
-  </si>
-  <si>
-    <t>7244</t>
-  </si>
-  <si>
     <t>7250</t>
+  </si>
+  <si>
+    <t>BHARANI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="$#,##0;[RED]-$#,##0"/>
-    <numFmt numFmtId="178" formatCode="$#,##0.00;[RED]-$#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -653,29 +645,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="16"/>
@@ -686,7 +655,7 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -782,395 +751,71 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="8">
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="6"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="7"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="26"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="27"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="28"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="29"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="30"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="31"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="32"/>
-    <cellStyle name="Heading_20_1" xfId="33"/>
-    <cellStyle name="Heading1_20_1" xfId="34"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="35"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="36"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="37"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="38"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="39"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="40"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="41"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="42"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="43"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="44"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="45"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="46"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="47"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="48"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="49"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="50"/>
-    <cellStyle name="Result_20_1" xfId="51"/>
-    <cellStyle name="Result2_20_1" xfId="52"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="53"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="54"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="55"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="56"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="57"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="58"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="59"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="60"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="61"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="62"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="63"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="64"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="65"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="66"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="67"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="68"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1225,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1277,7 +922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1471,31 +1116,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6fe5b943-4056-4df0-b65e-a2cbbfe4b120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="34.857142857142854" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="42.142857142857146" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="33.142857142857146" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="28.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="33.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="14.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,12 +1157,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1531,29 +1176,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33c41bce-3be9-4971-8f4a-e87afdc57aca}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="28.857142857142858" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.142857142857146" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="33.57142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="42.57142857142857" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="53.42857142857143" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="14.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1589,27 +1232,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bf44031a-a65d-4d1a-bb23-dbab3b22da6d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.571428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="51.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="45.714285714285715" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="51.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="14.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.05">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.05">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1633,32 +1274,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96db8615-4bb0-4c9a-8d94-7f6c787d4f01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="39.285714285714285" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="58.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="45.285714285714285" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="40.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="34.857142857142854" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="38.42857142857143" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="3" width="34.857142857142854" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="32.57142857142857" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="34.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="14.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.05">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.05">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1355,7 @@
         <v>993503</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.05">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1384,7 @@
         <v>993503</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.05">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1774,7 +1413,7 @@
         <v>993503</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.05">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1805,32 +1444,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ff3322e-4881-42c7-8c19-65e2fe074983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="53.857142857142854" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="75.28571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="50.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="39.285714285714285" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="45.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="59.714285714285715" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="1" max="1" width="53.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="75.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="53" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="50.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="14.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.05">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.05">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.05">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1908,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.05">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.05">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1960,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.05">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1986,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.05">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -2014,33 +1651,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89339952-aacb-493b-beb3-bcc837169278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.574285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.42857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="46.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="44.285714285714285" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="43.285714285714285" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="27.285714285714285" collapsed="true"/>
-    <col min="6" max="7" style="3" width="14.571428571428571" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="3" width="37.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="24.857142857142858" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="30.428571428571427" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.5703125" style="3" collapsed="1"/>
+    <col min="8" max="9" width="37.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="14.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.05">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +1710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.05">
+    <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +1743,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="14.05">
+    <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
@@ -2141,7 +1776,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="14.05">
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -2176,7 +1811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.05">
+    <row r="5" spans="1:11">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2188,7 +1823,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="14.05">
+    <row r="6" spans="1:11">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2202,41 +1837,41 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91bd02d4-0f5c-42f5-9848-e4177bcf4886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.424285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="28.857142857142858" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="42.285714285714285" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="13" width="46.714285714285715" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="31.428571428571427" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="13" width="46.142857142857146" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="13" width="38.42857142857143" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="13" width="34.714285714285715" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="13" width="42.285714285714285" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="13" width="37.142857142857146" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="13" width="33.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="13" width="32.142857142857146" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="13" width="28.857142857142858" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="13" width="19.1328125" collapsed="true"/>
-    <col min="16" max="20" customWidth="true" style="13" width="31.571428571428573" collapsed="true"/>
-    <col min="21" max="22" customWidth="true" style="13" width="22.285714285714285" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="13" width="36.142857142857146" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="13" width="26.142857142857142" collapsed="true"/>
-    <col min="25" max="16384" style="13" width="14.428571428571429" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="46.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="46.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="34.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="33" style="13" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="20" width="31.5703125" style="13" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="22.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="36.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="14.42578125" style="13" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.05">
+    <row r="1" spans="1:24" ht="15">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +1945,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12.8">
+    <row r="2" spans="1:24">
       <c r="A2" s="12" t="s">
         <v>104</v>
       </c>
@@ -2362,7 +1997,7 @@
       </c>
       <c r="X2" s="18"/>
     </row>
-    <row r="3" spans="1:24" ht="12.8">
+    <row r="3" spans="1:24">
       <c r="A3" s="12" t="s">
         <v>113</v>
       </c>
@@ -2416,7 +2051,7 @@
       </c>
       <c r="X3" s="18"/>
     </row>
-    <row r="4" spans="1:24" ht="12.8">
+    <row r="4" spans="1:24">
       <c r="A4" s="12" t="s">
         <v>116</v>
       </c>
@@ -2478,7 +2113,7 @@
       </c>
       <c r="X4" s="18"/>
     </row>
-    <row r="5" spans="1:24" ht="12.8">
+    <row r="5" spans="1:24">
       <c r="A5" s="12" t="s">
         <v>121</v>
       </c>
@@ -2532,7 +2167,7 @@
       </c>
       <c r="X5" s="18"/>
     </row>
-    <row r="6" spans="1:24" ht="12.8">
+    <row r="6" spans="1:24">
       <c r="A6" s="12" t="s">
         <v>124</v>
       </c>
@@ -2584,7 +2219,7 @@
       </c>
       <c r="X6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="12.8">
+    <row r="7" spans="1:24">
       <c r="A7" s="12" t="s">
         <v>126</v>
       </c>
@@ -2638,7 +2273,7 @@
       </c>
       <c r="X7" s="18"/>
     </row>
-    <row r="8" spans="1:24" ht="12.8">
+    <row r="8" spans="1:24">
       <c r="A8" s="12" t="s">
         <v>129</v>
       </c>
@@ -2706,7 +2341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="12.8">
+    <row r="9" spans="1:24">
       <c r="A9" s="12" t="s">
         <v>138</v>
       </c>
@@ -2738,7 +2373,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="18"/>
     </row>
-    <row r="10" spans="1:24" ht="12.8">
+    <row r="10" spans="1:24">
       <c r="A10" s="12" t="s">
         <v>139</v>
       </c>
@@ -2802,7 +2437,7 @@
       </c>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.8">
+    <row r="11" spans="1:24">
       <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
@@ -2868,7 +2503,7 @@
       </c>
       <c r="X11" s="18"/>
     </row>
-    <row r="12" spans="1:24" ht="12.8">
+    <row r="12" spans="1:24">
       <c r="A12" s="12" t="s">
         <v>144</v>
       </c>
@@ -2912,7 +2547,7 @@
         <v>109</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>133</v>
@@ -2938,33 +2573,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91e4a0db-6c12-4ae1-bd6b-b58725577cce}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.424285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="13" width="26.857142857142858" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="45.285714285714285" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="13" width="39.57142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="35.142857142857146" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="13" width="42.142857142857146" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="13" width="41.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="13" width="29.285714285714285" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="13" width="35.857142857142854" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="13" width="35.0" collapsed="true"/>
-    <col min="10" max="16384" style="13" width="14.428571428571429" collapsed="true"/>
+    <col min="1" max="1" width="26.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.5703125" style="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" style="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35" style="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="14.42578125" style="13" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.05">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -2993,7 +2628,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.8">
+    <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
         <v>154</v>
       </c>
@@ -3024,32 +2659,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1c031869-08b1-4bd7-bad9-9b91f830ca74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A6">
-      <selection pane="topLeft" activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="21" width="14.142857142857142" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="21" width="69.57142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="21" width="52.857142857142854" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="21" width="14.92578125" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="21" width="61.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="21" width="41.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="21" width="40.57142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="21" width="39.285714285714285" collapsed="true"/>
-    <col min="11" max="16384" style="29" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" style="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="61" style="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" style="21" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="40.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="13" style="29" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.05">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="19" t="s">
         <v>158</v>
       </c>
@@ -3081,7 +2716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.05">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -3101,7 +2736,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" ht="14.05">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -3121,7 +2756,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="14.05">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3141,7 +2776,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" ht="14.05">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -3161,7 +2796,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="14.05">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -3181,7 +2816,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" ht="14.05">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -3201,7 +2836,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" ht="14.05">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -3221,7 +2856,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" ht="14.05">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -3243,7 +2878,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" ht="14.05">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -3263,7 +2898,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" ht="14.05">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -3283,7 +2918,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="14.05">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -3303,7 +2938,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="14.05">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -3323,7 +2958,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:10" ht="14.05">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -3343,7 +2978,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:10" ht="14.05">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -3363,7 +2998,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" ht="14.05">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3383,7 +3018,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" ht="14.05">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3395,7 +3030,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" ht="14.05">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3407,7 +3042,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
     </row>
-    <row r="19" spans="1:10" ht="14.05">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -3419,7 +3054,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" ht="14.05">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -3431,7 +3066,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="1:10" ht="14.05">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -3443,7 +3078,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" ht="14.05">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -3455,7 +3090,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" ht="14.05">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -3467,7 +3102,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" ht="14.05">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -3479,7 +3114,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
     </row>
-    <row r="25" spans="1:10" ht="14.05">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -3491,7 +3126,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="1:10" ht="14.05">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -3503,7 +3138,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
     </row>
-    <row r="27" spans="1:10" ht="14.05">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -3515,7 +3150,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" ht="14.05">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -3527,7 +3162,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" ht="14.05">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3539,7 +3174,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
     </row>
-    <row r="30" spans="1:10" ht="14.05">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="25"/>
@@ -3551,7 +3186,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
     </row>
-    <row r="31" spans="1:10" ht="14.05">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="25"/>
@@ -3563,7 +3198,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
     </row>
-    <row r="32" spans="1:10" ht="14.05">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="25"/>
@@ -3575,7 +3210,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="14.05">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="25"/>
@@ -3587,7 +3222,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" ht="14.05">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="25"/>
@@ -3599,7 +3234,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" ht="14.05">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="25"/>
@@ -3611,7 +3246,7 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="14.05">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="25"/>
@@ -3623,7 +3258,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="14.05">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="25"/>
@@ -3635,7 +3270,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" ht="14.05">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="25"/>
@@ -3647,7 +3282,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" ht="14.05">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3659,7 +3294,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" ht="14.05">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -3671,7 +3306,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="14.05">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -3683,7 +3318,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" ht="14.05">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -3695,7 +3330,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
     </row>
-    <row r="43" spans="1:10" ht="14.05">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3707,7 +3342,7 @@
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
     </row>
-    <row r="44" spans="1:10" ht="14.05">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="25"/>
@@ -3719,7 +3354,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="14.05">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="25"/>
@@ -3731,7 +3366,7 @@
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" ht="14.05">
+    <row r="46" spans="1:10" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="25"/>
@@ -3743,7 +3378,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" ht="14.05">
+    <row r="47" spans="1:10" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="25"/>
@@ -3755,7 +3390,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
     </row>
-    <row r="48" spans="1:10" ht="14.05">
+    <row r="48" spans="1:10" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="25"/>
@@ -3767,7 +3402,7 @@
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
     </row>
-    <row r="49" spans="1:10" ht="14.05">
+    <row r="49" spans="1:10" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="25"/>
@@ -3779,7 +3414,7 @@
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
     </row>
-    <row r="50" spans="1:10" ht="14.05">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="25"/>
@@ -3791,7 +3426,7 @@
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
     </row>
-    <row r="51" spans="1:10" ht="14.05">
+    <row r="51" spans="1:10" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="25"/>
@@ -3803,7 +3438,7 @@
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
     </row>
-    <row r="52" spans="1:10" ht="14.05">
+    <row r="52" spans="1:10" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="25"/>
@@ -3815,7 +3450,7 @@
       <c r="I52" s="28"/>
       <c r="J52" s="28"/>
     </row>
-    <row r="53" spans="1:10" ht="14.05">
+    <row r="53" spans="1:10" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3827,7 +3462,7 @@
       <c r="I53" s="28"/>
       <c r="J53" s="28"/>
     </row>
-    <row r="54" spans="1:10" ht="14.05">
+    <row r="54" spans="1:10" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3845,8 +3480,8 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7874" right="0.7874" top="1.0835000000000001" bottom="1.0835000000000001" header="0.9445000000000001" footer="0.9445000000000001"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0835000000000001" bottom="1.0835000000000001" header="0.94450000000000012" footer="0.94450000000000012"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>

--- a/CSM_Bharani/TestData/CSMTestData.xlsx
+++ b/CSM_Bharani/TestData/CSMTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="189">
   <si>
     <t>Stage</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>CSMUser1</t>
-  </si>
-  <si>
-    <t>ANANDH</t>
   </si>
   <si>
     <t>CSMParamUser1</t>
@@ -599,7 +596,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -757,7 +754,7 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,7 +1113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1162,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1184,7 +1181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15"/>
   <cols>
@@ -1215,10 +1214,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1263,10 +1262,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1299,48 +1298,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6">
         <v>569742</v>
@@ -1357,19 +1356,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6">
         <v>569742</v>
@@ -1386,19 +1385,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6">
         <v>569742</v>
@@ -1415,19 +1414,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
         <v>569742</v>
@@ -1469,51 +1468,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1521,25 +1520,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1547,25 +1546,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1573,25 +1572,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1599,25 +1598,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1625,25 +1624,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1677,138 +1676,138 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1873,112 +1872,112 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15">
       <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="15"/>
@@ -1986,221 +1985,221 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="C3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="X4" s="18"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="C5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="I5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="X5" s="18"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="C6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="I6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="15"/>
@@ -2208,145 +2207,145 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W6" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="C7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="I7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="W7" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="L8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="W8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2366,7 +2365,7 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -2375,199 +2374,199 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="C10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="L10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="W10" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="C11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="L11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="V11" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="W11" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X11" s="18"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="C12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="L12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="O12" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U12" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="W12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X12" s="18"/>
     </row>
@@ -2601,60 +2600,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2686,34 +2685,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15">
       <c r="A1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
@@ -2721,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>169</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -2741,13 +2740,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2761,13 +2760,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -2781,13 +2780,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -2801,13 +2800,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -2821,13 +2820,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -2841,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -2861,16 +2860,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -2883,13 +2882,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -2903,13 +2902,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -2923,13 +2922,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -2943,13 +2942,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2963,13 +2962,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="D14" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2983,13 +2982,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -3003,13 +3002,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="27" t="s">
         <v>186</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>187</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>

--- a/CSM_Bharani/TestData/CSMTestData.xlsx
+++ b/CSM_Bharani/TestData/CSMTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="CSM_Transaction" sheetId="7" r:id="rId7"/>
     <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId8"/>
     <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId9"/>
+    <sheet name="Transactions" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
   <si>
     <t>Stage</t>
   </si>
@@ -589,6 +590,15 @@
   </si>
   <si>
     <t>BHARANI</t>
+  </si>
+  <si>
+    <t>TRS_096</t>
+  </si>
+  <si>
+    <t>DS01_TRS_096</t>
+  </si>
+  <si>
+    <t>TRX Type</t>
   </si>
 </sst>
 </file>
@@ -765,7 +775,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -800,6 +810,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1113,7 +1128,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1174,6 +1189,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="3.4063000000000003" bottom="3.4063000000000003" header="3.2094" footer="3.2094"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1845,7 +1901,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2581,7 +2637,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2666,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75"/>

--- a/CSM_Bharani/TestData/CSMTestData.xlsx
+++ b/CSM_Bharani/TestData/CSMTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="203">
   <si>
     <t>Stage</t>
   </si>
@@ -599,6 +599,39 @@
   </si>
   <si>
     <t>TRX Type</t>
+  </si>
+  <si>
+    <t>TRXType_BranchCode</t>
+  </si>
+  <si>
+    <t>TRXType_CurrencyCode</t>
+  </si>
+  <si>
+    <t>TRXType_GLCode</t>
+  </si>
+  <si>
+    <t>TRXType_CifCode</t>
+  </si>
+  <si>
+    <t>TRXTypeSerial_No</t>
+  </si>
+  <si>
+    <t>CurrencyCode_Flag</t>
+  </si>
+  <si>
+    <t>TRXType_CurrencyCode2_604</t>
+  </si>
+  <si>
+    <t>TRXType_GLCode2_604</t>
+  </si>
+  <si>
+    <t>TRXType_CifCode2_604</t>
+  </si>
+  <si>
+    <t>TRXTypeSerial_No2_604</t>
+  </si>
+  <si>
+    <t>Debit_Amount_604</t>
   </si>
 </sst>
 </file>
@@ -669,7 +702,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +769,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -760,6 +799,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -775,7 +840,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -810,11 +875,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1128,7 +1206,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1194,38 +1272,116 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="31" t="s">
+      <c r="D1" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="34">
         <v>977</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34">
+        <v>840</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2299</v>
+      </c>
+      <c r="G2" s="34">
+        <v>993594</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
+        <v>840</v>
+      </c>
+      <c r="J2" s="34">
+        <v>840</v>
+      </c>
+      <c r="K2" s="34">
+        <v>1899</v>
+      </c>
+      <c r="L2" s="34">
+        <v>993608</v>
+      </c>
+      <c r="M2" s="34">
+        <v>0</v>
+      </c>
+      <c r="N2" s="35">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/CSM_Bharani/TestData/CSMTestData.xlsx
+++ b/CSM_Bharani/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId8"/>
     <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId9"/>
     <sheet name="Transactions" sheetId="10" r:id="rId10"/>
+    <sheet name="SingleTransferModePaymentAcc" sheetId="11" r:id="rId11"/>
+    <sheet name="SaveAccountCIF_GLtoGL" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="217">
   <si>
     <t>Stage</t>
   </si>
@@ -632,6 +634,48 @@
   </si>
   <si>
     <t>Debit_Amount_604</t>
+  </si>
+  <si>
+    <t>TSA_397</t>
+  </si>
+  <si>
+    <t>DS01_TSA_397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Type </t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>TA_024</t>
+  </si>
+  <si>
+    <t>DS01_TA_024</t>
+  </si>
+  <si>
+    <t>Transfer Type</t>
+  </si>
+  <si>
+    <t>From GL To GL</t>
+  </si>
+  <si>
+    <t>CIF enter</t>
+  </si>
+  <si>
+    <t>Original GL</t>
+  </si>
+  <si>
+    <t>Destination GL</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>TA_025</t>
+  </si>
+  <si>
+    <t>DS01_TA_025</t>
   </si>
 </sst>
 </file>
@@ -840,7 +884,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -891,6 +935,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,9 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1382,6 +1433,146 @@
       </c>
       <c r="N2" s="35">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="34">
+        <v>560</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="36">
+        <v>993594</v>
+      </c>
+      <c r="E2" s="36">
+        <v>2299</v>
+      </c>
+      <c r="F2" s="36">
+        <v>1899</v>
+      </c>
+      <c r="G2" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="36">
+        <v>993594</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1899</v>
+      </c>
+      <c r="F3" s="36">
+        <v>2299</v>
+      </c>
+      <c r="G3" s="36">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
